--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="20800" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="20840" windowHeight="15340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -72,6 +73,271 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SondaA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.26048241014396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0634188197158928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.197978834969969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.345828963676232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.132290971493946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SondaC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.199572492415188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0994529741656707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.275443596579939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.346350096533971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0791808403052312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="550816264"/>
+        <c:axId val="551029240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="550816264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Query Types (EXACT_LANG=1, EXACT=2, LIKE=3, AND=4, OR=5)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="551029240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551029240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Query Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="550816264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,23 +660,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -418,13 +684,10 @@
         <v>0.26048241014396001</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
         <v>0.19957249241518801</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -432,13 +695,10 @@
         <v>6.3418819715892805E-2</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
         <v>9.9452974165670699E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -446,13 +706,10 @@
         <v>0.19797883496996899</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
         <v>0.275443596579939</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -460,13 +717,10 @@
         <v>0.345828963676232</v>
       </c>
       <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
         <v>0.34635009653397097</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -474,13 +728,30 @@
         <v>0.132290971493946</v>
       </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
         <v>7.9180840305231204E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
